--- a/Desafio_Projeto_1_Investimentos.xlsx
+++ b/Desafio_Projeto_1_Investimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriel\Downloads\Estudos Adriel\Analise de Dados\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9C182-6D6B-4512-8557-62EC764DFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A690718-13EF-4677-88D9-12E7FD7E31AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -537,7 +537,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -555,27 +555,9 @@
     <xf numFmtId="8" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,22 +570,16 @@
     <xf numFmtId="8" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
@@ -611,13 +587,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +615,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -663,6 +634,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -687,7 +664,24 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1023,7 +1017,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1034,9 +1028,8 @@
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="3.140625" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1"/>
-    <col min="13" max="13" width="30.7109375" hidden="1"/>
+    <col min="7" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -1050,102 +1043,102 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="25">
-        <v>3150</v>
+      <c r="C11" s="41"/>
+      <c r="D11" s="19">
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="28">
-        <v>8.8999999999999999E-3</v>
+      <c r="C12" s="43"/>
+      <c r="D12" s="20">
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="29">
-        <f>D11*30%</f>
-        <v>945</v>
+      <c r="C13" s="45"/>
+      <c r="D13" s="21">
+        <f>D11*10%</f>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="24">
-        <v>300</v>
+      <c r="C16" s="49"/>
+      <c r="D16" s="18">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="20">
+      <c r="C17" s="51"/>
+      <c r="D17" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="21">
+      <c r="C18" s="51"/>
+      <c r="D18" s="15">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="22">
+      <c r="C19" s="53"/>
+      <c r="D19" s="16">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>25133.074199546292</v>
+        <v>20944.22849962191</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="23">
+      <c r="C20" s="55"/>
+      <c r="D20" s="17">
         <f>patrimonio*rendimento_carteira</f>
-        <v>223.684360375962</v>
+        <v>226.19766779591663</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1158,11 +1151,11 @@
       </c>
       <c r="C23" s="7">
         <f>FV($D$18,$A23*12,$D$16*-1)</f>
-        <v>8168.2881892935648</v>
+        <v>6806.9068244113041</v>
       </c>
       <c r="D23" s="8">
         <f>C23*rendimento_carteira</f>
-        <v>72.697764884712726</v>
+        <v>73.514593703642092</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1174,11 +1167,11 @@
       </c>
       <c r="C24" s="9">
         <f>FV($D$18,$A24*12,$D$16*-1)</f>
-        <v>25133.074199546292</v>
+        <v>20944.22849962191</v>
       </c>
       <c r="D24" s="10">
         <f>C24*rendimento_carteira</f>
-        <v>223.684360375962</v>
+        <v>226.19766779591663</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1190,11 +1183,11 @@
       </c>
       <c r="C25" s="9">
         <f>FV($D$18,$A25*12,$D$16*-1)</f>
-        <v>72985.263759051653</v>
+        <v>60821.053132543049</v>
       </c>
       <c r="D25" s="10">
         <f>C25*rendimento_carteira</f>
-        <v>649.56884745555976</v>
+        <v>656.86737383146499</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,11 +1199,11 @@
       </c>
       <c r="C26" s="9">
         <f>FV($D$18,$A26*12,$D$16*-1)</f>
-        <v>337559.52002912416</v>
+        <v>281299.60002427013</v>
       </c>
       <c r="D26" s="10">
         <f>C26*rendimento_carteira</f>
-        <v>3004.2797282592051</v>
+        <v>3038.0356802621177</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,43 +1215,43 @@
       </c>
       <c r="C27" s="11">
         <f>FV($D$18,$A27*12,$D$16*-1)</f>
-        <v>1296650.8965014142</v>
+        <v>1080542.4137511787</v>
       </c>
       <c r="D27" s="12">
         <f>C27*rendimento_carteira</f>
-        <v>11540.192978862588</v>
+        <v>11669.858068512731</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="25">
         <f>aporte</f>
-        <v>300</v>
-      </c>
-      <c r="D31" s="32"/>
+        <v>250</v>
+      </c>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1270,9 +1263,9 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B34,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="D34" s="63">
-        <f>C34*$C$31</f>
-        <v>75</v>
+      <c r="D34" s="39">
+        <f t="shared" ref="D34:D40" si="0">C34*$C$31</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1283,9 +1276,9 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B35,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D35" s="63">
-        <f>C35*$C$31</f>
-        <v>90</v>
+      <c r="D35" s="39">
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1296,9 +1289,9 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B36,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.22</v>
       </c>
-      <c r="D36" s="63">
-        <f>C36*$C$31</f>
-        <v>66</v>
+      <c r="D36" s="39">
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1309,9 +1302,9 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B37,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="D37" s="63">
-        <f>C37*$C$31</f>
-        <v>24</v>
+      <c r="D37" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1322,9 +1315,9 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B38,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D38" s="63">
-        <f>C38*$C$31</f>
-        <v>15</v>
+      <c r="D38" s="39">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1335,9 +1328,9 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B39,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D39" s="63">
-        <f>C39*$C$31</f>
-        <v>15</v>
+      <c r="D39" s="39">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1348,22 +1341,23 @@
         <f>VLOOKUP($C$30&amp;"-"&amp;B40,Planilha1!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D40" s="63">
-        <f>C40*$C$31</f>
-        <v>15</v>
+      <c r="D40" s="39">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29">
         <f>SUM(D35:D40)</f>
-        <v>225</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -1374,7 +1368,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{A30DEAA4-FD6C-4D58-900F-73287967A55C}">
@@ -1404,16 +1397,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1422,7 +1415,7 @@
         <f>B3&amp;"-"&amp;C3</f>
         <v>CONSERVADOR-CDB</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1437,13 +1430,13 @@
         <f>B4&amp;"-"&amp;C4</f>
         <v>CONSERVADOR-PAPEL</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="31">
         <v>0.25</v>
       </c>
       <c r="I4" t="s">
@@ -1455,19 +1448,19 @@
         <f t="shared" ref="A5:A23" si="0">B5&amp;"-"&amp;C5</f>
         <v>CONSERVADOR-TIJOLO</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="31">
         <v>0.25</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="38">
         <f>VLOOKUP(H5,$A:$D,4,FALSE)</f>
         <v>0.22</v>
       </c>
@@ -1477,13 +1470,13 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-HIBRIDOS</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="31">
         <v>0.1</v>
       </c>
     </row>
@@ -1492,13 +1485,13 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-FOFs</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1507,28 +1500,28 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-DESENVOLVIMENTO</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="str">
+      <c r="A9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVADOR-HOTELARIA</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="34">
         <v>0</v>
       </c>
     </row>
@@ -1537,13 +1530,13 @@
         <f t="shared" si="0"/>
         <v>MODERADO-CDB</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="31">
         <v>0.25</v>
       </c>
     </row>
@@ -1552,10 +1545,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-PAPEL</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="3">
@@ -1567,10 +1560,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-TIJOLO</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3">
@@ -1582,10 +1575,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-HIBRIDOS</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3">
@@ -1597,10 +1590,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-FOFs</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="3">
@@ -1612,10 +1605,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3">
@@ -1623,17 +1616,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="str">
+      <c r="A16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-HOTELARIA</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="35">
         <v>0.05</v>
       </c>
     </row>
@@ -1642,13 +1635,13 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-CDB</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1657,10 +1650,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-PAPEL</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="3">
@@ -1672,10 +1665,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-TIJOLO</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="3">
@@ -1687,10 +1680,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HIBRIDOS</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="3">
@@ -1702,10 +1695,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-FOFs</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="3">
@@ -1717,10 +1710,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="3">
@@ -1728,17 +1721,17 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="str">
+      <c r="A23" s="32" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HOTELARIA</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="35">
         <v>0.05</v>
       </c>
     </row>
